--- a/6team-IndividualWorkSheet.xlsx
+++ b/6team-IndividualWorkSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nanul\OneDrive\바탕 화면\6team-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD18664-13A7-42F5-AFA8-CC2B04FA1598}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{FDD18664-13A7-42F5-AFA8-CC2B04FA1598}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{B63AE5F4-255F-41DF-B8C5-0B2DFE5F722B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{FCAA3FF0-AA75-C645-967F-E4C4CFF74051}"/>
+    <workbookView xWindow="4770" yWindow="1245" windowWidth="21600" windowHeight="11385" xr2:uid="{FCAA3FF0-AA75-C645-967F-E4C4CFF74051}"/>
   </bookViews>
   <sheets>
     <sheet name="윤다은" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
   <si>
     <t>할일</t>
   </si>
@@ -161,11 +161,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>신고할 때 입력된 내용에대한 처리가 없음, 신고된 내용에 대해 경고횟수 증가시키는 부분 구현필요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>환경구축완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인정보 수정 구현 (디비에서 정보를 가져와서 보여준후 수정된 내용 다시 반영)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신고할 때 입력된 내용에대한 처리가 없음-&gt; 5회이상 신고당한 유저 차단, 신고된 내용에 대해 경고횟수 증가시키는 부분 구현필요-&gt; 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 비밀번호 확인하는 부분이 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 등록기능구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 보기, 검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청내역보기 및 승인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이전까지 신청한 히스토리보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 개인 페이지구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -693,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C14FFC-A98E-D14C-9FD6-16CE2D228C25}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -761,7 +793,7 @@
         <v>43601</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>26</v>
@@ -785,7 +817,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="153" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
@@ -802,67 +834,97 @@
         <v>34</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="48.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="C6" s="2">
         <v>43611</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="D6" s="2">
+        <v>43618</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2">
+        <v>43611</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2">
+        <v>43618</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2">
+        <v>43618</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2">
+        <v>43618</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
+    <row r="11" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2">
+        <v>43618</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2">
+        <v>43618</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -905,7 +967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C67034FD-BFF4-A549-800D-AA3E9E18B838}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>

--- a/6team-IndividualWorkSheet.xlsx
+++ b/6team-IndividualWorkSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nanul\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1F75C7-FAD8-4269-9619-E69545CA792B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CCCC4E-D3CE-4FEE-A6A8-6AEBB8A800DC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{FCAA3FF0-AA75-C645-967F-E4C4CFF74051}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FCAA3FF0-AA75-C645-967F-E4C4CFF74051}"/>
   </bookViews>
   <sheets>
     <sheet name="윤다은" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="62">
   <si>
     <t>할일</t>
   </si>
@@ -242,6 +242,30 @@
   </si>
   <si>
     <t>query를 짜면서 불편한 내용 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp페이지를 비효율적으로 2개를 만들어서 처리하였음.. 페이지 개수 줄이는 방법이 있을듯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consumer가 신청한 예약내역을 승인/거절하는 기능 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 사용자의 개인정보를 열람할 수 있는 페이지를 만듬 -&gt; 예약을 만드는 경우와 수락하는 경우에 참고, 예약된 후 서로 의사소통하기위해 전화번호를 넣었음 -&gt; 채팅기능있으면 필요없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인정보 유출의 문제점이 있으므로 채팅을 구현한다면 전화번호 삭제할 예정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 사용자의 정보 열람 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공급자에게 온 예약신청을 수락/거절 하는 기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -769,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C14FFC-A98E-D14C-9FD6-16CE2D228C25}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -981,29 +1005,45 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="69" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="C12" s="2">
         <v>43618</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="D12" s="2">
+        <v>43628</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="C13" s="2">
         <v>43618</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="D13" s="2">
+        <v>43628</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
@@ -1045,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C67034FD-BFF4-A549-800D-AA3E9E18B838}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>

--- a/6team-IndividualWorkSheet.xlsx
+++ b/6team-IndividualWorkSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nanul\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CCCC4E-D3CE-4FEE-A6A8-6AEBB8A800DC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E944B917-FBFA-4F1E-9C5F-BAADDE729F02}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FCAA3FF0-AA75-C645-967F-E4C4CFF74051}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="63">
   <si>
     <t>할일</t>
   </si>
@@ -225,10 +225,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">공급자 메인 페이지의 신청내역에서 상세 신청내역까지 구현 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>신청내역, 상세신청내역 구현 신청내역에서 방의 세부정보 열람할 수있도록 링크 구현하였음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -266,6 +262,14 @@
   </si>
   <si>
     <t>공급자에게 온 예약신청을 수락/거절 하는 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공급자 메인 페이지의 신청내역에서 상세 신청내역까지 구현 , 사용자의 예약 내역 (승인된것 제외) 보기 및 취소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거절당한 예약신청을 직접 삭제해야함 -&gt; 전달도 해주고 삭제도 자동으로 하려면 어떻게 해야할지 고민..</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -794,7 +798,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -980,7 +984,7 @@
         <v>49</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C10" s="2">
         <v>43618</v>
@@ -989,9 +993,11 @@
         <v>43627</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -1010,7 +1016,7 @@
         <v>42</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="2">
         <v>43618</v>
@@ -1019,10 +1025,10 @@
         <v>43628</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
@@ -1030,7 +1036,7 @@
         <v>50</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" s="2">
         <v>43618</v>
@@ -1039,18 +1045,18 @@
         <v>43628</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="C14" s="2">
         <v>43618</v>
@@ -1059,7 +1065,7 @@
         <v>43627</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F14" s="1"/>
     </row>

--- a/6team-IndividualWorkSheet.xlsx
+++ b/6team-IndividualWorkSheet.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nanul\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E944B917-FBFA-4F1E-9C5F-BAADDE729F02}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FCAA3FF0-AA75-C645-967F-E4C4CFF74051}"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="590" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="윤다은" sheetId="1" r:id="rId1"/>
@@ -18,22 +12,13 @@
     <sheet name="이강일" sheetId="3" r:id="rId3"/>
     <sheet name="표준식" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>할일</t>
   </si>
@@ -66,34 +51,27 @@
   </si>
   <si>
     <t>database 구축</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>code refactoring</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>database와 ui연동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>트랜잭션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>검색기능 필터링</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>필터링 기능 통해 검색편의성 증대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>게시판 분리</t>
   </si>
   <si>
     <t>신고기능, 고객간 평가부분 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>소비자 UI구현</t>
@@ -106,205 +84,576 @@
   </si>
   <si>
     <t>방등록 및 편집, 소비자 별점메기기 및 후기, 방관리, 신고기능 html로 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>구현완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>구현하였으나 서버, 디비와 연동 x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>서버, 디비, 이클립스 연결</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>서버기반 환경 구축</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>디비에 샘플 데이터없어 테스트 불가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>html기반 문서를 jsp로 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>아직 구현 안된 기능들이 있음 (혹은 구현이 일부만 된 기능들)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>로그인, 신고기능 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>개인 정보 수정 부분 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>별점기능 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>기존에 만들었던 로그인, 회원가입, 공급자용, 소비자용 웹페이지들을 jsp로 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>로그인기능과 사용자간 신고기능을 구현하였음. (로그아웃기능도 수정)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>로그인, 로그아웃을 처리하는 jsp페이지를 추가하였다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>환경구축완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>개인정보 수정 구현 (디비에서 정보를 가져와서 보여준후 수정된 내용 다시 반영)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>신고할 때 입력된 내용에대한 처리가 없음-&gt; 5회이상 신고당한 유저 차단, 신고된 내용에 대해 경고횟수 증가시키는 부분 구현필요-&gt; 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>현재 비밀번호 확인하는 부분이 없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>게시글 등록기능구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>이전까지 신청한 히스토리보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>사용자 개인 페이지구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>게시글 보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공급자의 새글 등록 기능 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>db에 content를 추가해야함, 한글깨지는 현상 해결 못했음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공급자가 새글을 등록할 수 있게 되었음 하지만 전송시에 한글깨짐 현상이 발생</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>사용자의 메인 페이지에서 디비에 있는 게시글 불러오기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>메인 페이지에서 전체 게시글 볼 수 있음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>신청내역보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>신청 내역 승인/거절기능 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>신청내역, 상세신청내역 구현 신청내역에서 방의 세부정보 열람할 수있도록 링크 구현하였음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>디비 테이블 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">room_reserve_info, room_info 테이블 수정 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>query를 짜면서 불편한 내용 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>jsp페이지를 비효율적으로 2개를 만들어서 처리하였음.. 페이지 개수 줄이는 방법이 있을듯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>consumer가 신청한 예약내역을 승인/거절하는 기능 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>다른 사용자의 개인정보를 열람할 수 있는 페이지를 만듬 -&gt; 예약을 만드는 경우와 수락하는 경우에 참고, 예약된 후 서로 의사소통하기위해 전화번호를 넣었음 -&gt; 채팅기능있으면 필요없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>개인정보 유출의 문제점이 있으므로 채팅을 구현한다면 전화번호 삭제할 예정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>다른 사용자의 정보 열람 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공급자에게 온 예약신청을 수락/거절 하는 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공급자 메인 페이지의 신청내역에서 상세 신청내역까지 구현 , 사용자의 예약 내역 (승인된것 제외) 보기 및 취소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>거절당한 예약신청을 직접 삭제해야함 -&gt; 전달도 해주고 삭제도 자동으로 하려면 어떻게 해야할지 고민..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 베이스 구조 변경</t>
+  </si>
+  <si>
+    <t>DB MWB 파일 생성 및 구조 설계</t>
+  </si>
+  <si>
+    <t>2019-05-</t>
+  </si>
+  <si>
+    <t>DB 구조 설계 완료</t>
+  </si>
+  <si>
+    <t>데이터 베이스 구조 설계</t>
+  </si>
+  <si>
+    <t>테이블 column 추가 및 삭제, 태이블 추가 및 삭제</t>
+  </si>
+  <si>
+    <t>테이블 구조 변경</t>
+  </si>
+  <si>
+    <t>데이터 베이스 sql query 문 작성</t>
+  </si>
+  <si>
+    <t>샘플데이터용 .sql파일 생성</t>
+  </si>
+  <si>
+    <t>.sql파일 생성완료</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB </t>
+  </si>
+  <si>
+    <t>기존 코드 분석</t>
+  </si>
+  <si>
+    <t>코드 구조 및 내용 분석</t>
+  </si>
+  <si>
+    <t>219-05</t>
+  </si>
+  <si>
+    <t>기존 코드 내용 분석</t>
+  </si>
+  <si>
+    <t>기존 코드 리팩토링</t>
+  </si>
+  <si>
+    <t>코드 리팩토링</t>
+  </si>
+  <si>
+    <t>코드 분석 완료</t>
+  </si>
+  <si>
+    <t>미구현된 부분이 너무 많고, 중복되고 불필요한기능이 존재함</t>
+  </si>
+  <si>
+    <t>primary key 설정 필요</t>
+  </si>
+  <si>
+    <t>참조키 추가 필요</t>
+  </si>
+  <si>
+    <t>DB Primary key 설정</t>
+  </si>
+  <si>
+    <t>table의 primary key 설정 및 column 수정</t>
+  </si>
+  <si>
+    <t>참조키 추가 필요, sql문 수정 필요</t>
+  </si>
+  <si>
+    <t>PK 추가 완료</t>
+  </si>
+  <si>
+    <t>DB 구조 변경 필요</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="&quot;₩&quot;#,##0.00;\-&quot;₩&quot;#,##0.00"/>
+    <numFmt numFmtId="179" formatCode="0%"/>
+    <numFmt numFmtId="180" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="181" formatCode="&quot;₩&quot;#,##0;\\\-&quot;₩&quot;#,##0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
-      <sz val="12"/>
+      <sz val="12.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="8.0"/>
       <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="10"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="11"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F76"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F3F"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C0006"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C6500"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF7F7F7F"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.150000"/>
+        <bgColor theme="0" tint="-0.150000"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -312,11 +661,277 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFACCCEA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399980"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -324,175 +939,143 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
+    <cellStyle name="20% - 강조색1" xfId="25" builtinId="30"/>
+    <cellStyle name="20% - 강조색2" xfId="29" builtinId="34"/>
+    <cellStyle name="20% - 강조색3" xfId="33" builtinId="38"/>
+    <cellStyle name="20% - 강조색4" xfId="37" builtinId="42"/>
+    <cellStyle name="20% - 강조색5" xfId="41" builtinId="46"/>
+    <cellStyle name="20% - 강조색6" xfId="45" builtinId="50"/>
+    <cellStyle name="40% - 강조색1" xfId="26" builtinId="31"/>
+    <cellStyle name="40% - 강조색2" xfId="30" builtinId="35"/>
+    <cellStyle name="40% - 강조색3" xfId="34" builtinId="39"/>
+    <cellStyle name="40% - 강조색4" xfId="38" builtinId="43"/>
+    <cellStyle name="40% - 강조색5" xfId="42" builtinId="47"/>
+    <cellStyle name="40% - 강조색6" xfId="46" builtinId="51"/>
+    <cellStyle name="60% - 강조색1" xfId="27" builtinId="32"/>
+    <cellStyle name="60% - 강조색2" xfId="31" builtinId="36"/>
+    <cellStyle name="60% - 강조색3" xfId="35" builtinId="40"/>
+    <cellStyle name="60% - 강조색4" xfId="39" builtinId="44"/>
+    <cellStyle name="60% - 강조색5" xfId="43" builtinId="48"/>
+    <cellStyle name="60% - 강조색6" xfId="47" builtinId="52"/>
+    <cellStyle name="강조색1" xfId="24" builtinId="29"/>
+    <cellStyle name="강조색2" xfId="28" builtinId="33"/>
+    <cellStyle name="강조색3" xfId="32" builtinId="37"/>
+    <cellStyle name="강조색4" xfId="36" builtinId="41"/>
+    <cellStyle name="강조색5" xfId="40" builtinId="45"/>
+    <cellStyle name="강조색6" xfId="44" builtinId="49"/>
+    <cellStyle name="경고문" xfId="9" builtinId="11"/>
+    <cellStyle name="계산" xfId="17" builtinId="22"/>
+    <cellStyle name="나쁨" xfId="22" builtinId="27"/>
+    <cellStyle name="메모" xfId="8" builtinId="10"/>
+    <cellStyle name="백분율" xfId="3" builtinId="5"/>
+    <cellStyle name="보통" xfId="23" builtinId="28"/>
+    <cellStyle name="설명텍스트" xfId="48" builtinId="53"/>
+    <cellStyle name="셀 확인" xfId="18" builtinId="23"/>
+    <cellStyle name="쉼표" xfId="1" builtinId="3"/>
+    <cellStyle name="쉼표[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="연결된 셀" xfId="19" builtinId="24"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="요약" xfId="20" builtinId="25"/>
+    <cellStyle name="입력" xfId="15" builtinId="20"/>
+    <cellStyle name="제목" xfId="10" builtinId="15"/>
+    <cellStyle name="제목 1" xfId="11" builtinId="16"/>
+    <cellStyle name="제목 2" xfId="12" builtinId="17"/>
+    <cellStyle name="제목 3" xfId="13" builtinId="18"/>
+    <cellStyle name="제목 4" xfId="14" builtinId="19"/>
+    <cellStyle name="좋음" xfId="21" builtinId="26"/>
+    <cellStyle name="출력" xfId="16" builtinId="21"/>
+    <cellStyle name="통화" xfId="2" builtinId="4"/>
+    <cellStyle name="통화[0]" xfId="5" builtinId="7"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="6" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="24">
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{72FE4043-6CB5-2048-BE5C-411DA9E676BA}" name="Table1" displayName="Table1" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15" xr:uid="{03FBFC27-16C8-DD42-928B-ABA1D393C713}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{05FCB8A4-A8BA-4B41-9F2B-B0506496E623}" name="할일" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{60A0A5BA-661B-834B-8197-1C7A6D8DDDCD}" name="내용" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{6ECDDE03-3D31-CF45-9CCB-373713B27D9F}" name="할당일" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{495FFBF1-9FCF-C045-B6CA-30DA46033F57}" name="완성일" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{84E860E1-A248-8246-AD59-8EC3E5E7E7E7}" name="결과" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{FD0E0825-8B19-7E41-AAAF-A4E947367A39}" name="문제점" dataDxfId="18"/>
+    <tableColumn id="1" name="할일" dataDxfId="23"/>
+    <tableColumn id="2" name="내용" dataDxfId="22"/>
+    <tableColumn id="3" name="할당일" dataDxfId="21"/>
+    <tableColumn id="4" name="완성일" dataDxfId="20"/>
+    <tableColumn id="5" name="결과" dataDxfId="19"/>
+    <tableColumn id="6" name="문제점" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D46C7571-941F-AD4B-94C8-83666430A1CC}" name="Table13" displayName="Table13" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15" xr:uid="{4E226D53-8B78-D74B-AEA9-0667C9B5EEFE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{7B0DB81B-F367-C943-8F36-2937E2F1F42C}" name="할일" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{2B7D4B8D-CE65-B244-A444-786AB4D654DE}" name="내용" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{F9298CBC-86C8-9A41-AACC-1AE8C0A66611}" name="할당일" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{E740C854-D7A5-1549-B300-A67F30554219}" name="완성일" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{EA738C33-5E64-6945-B470-E3391E8D2A3F}" name="결과" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{C3FAB94C-D6FC-9E47-8459-1AB7E77BA67F}" name="문제점" dataDxfId="12"/>
+    <tableColumn id="1" name="할일" dataDxfId="17"/>
+    <tableColumn id="2" name="내용" dataDxfId="16"/>
+    <tableColumn id="3" name="할당일" dataDxfId="15"/>
+    <tableColumn id="4" name="완성일" dataDxfId="14"/>
+    <tableColumn id="5" name="결과" dataDxfId="13"/>
+    <tableColumn id="6" name="문제점" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CC292F7A-8169-F544-87D7-5E751E302B2D}" name="Table14" displayName="Table14" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15" xr:uid="{CB7A7201-8BFC-D74F-B5EC-48471E641635}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{3B1EA132-9987-0F4E-8B99-EFA12DA08DC4}" name="할일" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{15B26D7A-C19A-D843-980A-002FDC97EDAC}" name="내용" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{45B34DAB-B154-A248-9621-229186118E7E}" name="할당일" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{BAB3B138-7773-EB4C-A303-2882DBAEDF4B}" name="완성일" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{C27CCA5C-5577-AF45-BE47-6EB01E5D7DBE}" name="결과" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{CEE9A07C-65DC-2D4E-A564-48CF60809DDF}" name="문제점" dataDxfId="6"/>
+    <tableColumn id="1" name="할일" dataDxfId="11"/>
+    <tableColumn id="2" name="내용" dataDxfId="10"/>
+    <tableColumn id="3" name="할당일" dataDxfId="9"/>
+    <tableColumn id="4" name="완성일" dataDxfId="8"/>
+    <tableColumn id="5" name="결과" dataDxfId="7"/>
+    <tableColumn id="6" name="문제점" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A834ADBB-1A19-264E-8768-BD31A0F05DCF}" name="Table15" displayName="Table15" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15" xr:uid="{A931BC6D-B1E1-2649-8D23-2C7B73EDCFEC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{57D18F50-627E-E24B-B7E9-20003FA96EC0}" name="할일" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{FF8A36FF-2633-2E46-AE12-285D37CA3C19}" name="내용" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{BA5C562F-0A54-764D-AFF2-40A49350A097}" name="할당일" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{B2046308-6837-614B-AB16-DBF7481F7A94}" name="완성일" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{FA2DD1A4-BEB6-6D44-97B2-BF29DC61500A}" name="결과" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{C978756B-5187-1148-AC57-6B5399BA191F}" name="문제점" dataDxfId="0"/>
+    <tableColumn id="1" name="할일" dataDxfId="5"/>
+    <tableColumn id="2" name="내용" dataDxfId="4"/>
+    <tableColumn id="3" name="할당일" dataDxfId="3"/>
+    <tableColumn id="4" name="완성일" dataDxfId="2"/>
+    <tableColumn id="5" name="결과" dataDxfId="1"/>
+    <tableColumn id="6" name="문제점" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -794,44 +1377,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C14FFC-A98E-D14C-9FD6-16CE2D228C25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="17.250000"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" customWidth="1"/>
-    <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" customWidth="1"/>
-    <col min="6" max="6" width="39.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="40.00499937" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" width="15.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" width="14.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" width="26.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" width="39.89388869" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="44.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="44.100000" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -851,7 +1434,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="41.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="41.100000" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -871,7 +1454,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="47.100000" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -889,7 +1472,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="72.000000" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
@@ -909,7 +1492,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="48.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="48.950000" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
@@ -929,7 +1512,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -941,7 +1524,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="51.750000">
       <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
@@ -961,7 +1544,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="34.500000">
       <c r="A9" s="1" t="s">
         <v>43</v>
       </c>
@@ -979,7 +1562,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="51.750000">
       <c r="A10" s="1" t="s">
         <v>49</v>
       </c>
@@ -999,7 +1582,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="34.500000">
       <c r="A11" s="1" t="s">
         <v>41</v>
       </c>
@@ -1011,7 +1594,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="69" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="69.000000">
       <c r="A12" s="1" t="s">
         <v>42</v>
       </c>
@@ -1031,7 +1614,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="34.500000">
       <c r="A13" s="1" t="s">
         <v>50</v>
       </c>
@@ -1051,7 +1634,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="34.500000">
       <c r="A14" s="1" t="s">
         <v>52</v>
       </c>
@@ -1069,7 +1652,7 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1079,139 +1662,164 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C67034FD-BFF4-A549-800D-AA3E9E18B838}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="17.250000"/>
+  <cols>
+    <col min="6" max="6" width="16.33833334" customWidth="1" outlineLevel="0"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="86.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2">
+    <row r="2" spans="1:6" ht="52.000000" customHeight="1">
+      <c r="A2" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="3">
         <v>43594</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>43597</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="103.5" x14ac:dyDescent="0.3">
+      <c r="E2" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="35.500000" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="C3" s="2">
-        <v>43594</v>
+        <v>43600</v>
       </c>
       <c r="D3" s="2">
-        <v>43597</v>
+        <v>43601</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="34.500000">
       <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="2">
+        <v>43605</v>
+      </c>
+      <c r="D4" s="2">
+        <v>43616</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="86.250000">
       <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="2">
+        <v>43616</v>
+      </c>
+      <c r="D5" s="2">
+        <v>43617</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="34.500000">
       <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="C6" s="2">
-        <v>43623</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
+        <v>43617</v>
+      </c>
+      <c r="D6" s="2">
+        <v>43618</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="51.750000">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2">
-        <v>43600</v>
+        <v>43618</v>
       </c>
       <c r="D7" s="2">
-        <v>43601</v>
+        <v>43622</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1219,7 +1827,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1227,7 +1835,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1235,7 +1843,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1243,7 +1851,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1251,7 +1859,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1259,7 +1867,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1269,7 +1877,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -1277,36 +1886,36 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A7F25C-F87D-0347-A3F0-84405B967072}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="17.250000"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="86.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="86.250000">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1324,7 +1933,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="103.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="103.500000">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1342,7 +1951,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1352,7 +1961,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="51.750000">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -1364,7 +1973,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1372,7 +1981,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1380,7 +1989,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1388,7 +1997,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1396,7 +2005,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1404,7 +2013,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1412,7 +2021,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1420,7 +2029,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1428,7 +2037,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1436,7 +2045,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1446,7 +2055,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -1454,42 +2064,42 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04FA645-8FC6-F147-A0B8-D80F8ED71AE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="17.250000"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" customWidth="1"/>
-    <col min="2" max="2" width="37.109375" customWidth="1"/>
-    <col min="5" max="5" width="45.33203125" customWidth="1"/>
-    <col min="6" max="6" width="57.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.44944403" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="37.11611006" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" width="45.33833143" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" width="57.67166731" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="51.750000">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1505,7 +2115,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1519,7 +2129,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -1529,7 +2139,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1539,7 +2149,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1547,7 +2157,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1555,7 +2165,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1563,7 +2173,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1571,7 +2181,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1579,7 +2189,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1587,7 +2197,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1595,7 +2205,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1603,7 +2213,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1611,7 +2221,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1621,7 +2231,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/6team-IndividualWorkSheet.xlsx
+++ b/6team-IndividualWorkSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nanul\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22641EA1-82B3-4CD3-8479-64DB85B5D794}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC39DB6-645C-4193-B7AA-57669EE1D66F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FCAA3FF0-AA75-C645-967F-E4C4CFF74051}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="101">
   <si>
     <t>할일</t>
   </si>
@@ -233,10 +233,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>query를 짜면서 불편한 내용 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>jsp페이지를 비효율적으로 2개를 만들어서 처리하였음.. 페이지 개수 줄이는 방법이 있을듯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -357,6 +353,54 @@
   </si>
   <si>
     <t>참조키 추가 필요, sql문 수정 필요</t>
+  </si>
+  <si>
+    <t>6.18 -&gt; 공급자와 소비자의 reserve history를 하나의 파일로 합침</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이전까지 승낙된 예약내역을 보여줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table foreign key 수정, 추가로 필요한 column 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">날짜별로 예약 구분은 안됨.. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한글 전송 깨짐 해결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입시 이메일 양식 확인, 비밀번호 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 양식 확인하지않으면 다음 단계로 넘어가지못함, 비밀번호 확인도 마찬가지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일을 확인 메일을 보내서 하면 좋을듯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한글 post로 전송시 깨짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 8자에서 15자 사이, 특수문자, 숫자 반드시 포함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>받는 코드에서 인코딩 바꿔서 해결!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -543,8 +587,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{72FE4043-6CB5-2048-BE5C-411DA9E676BA}" name="Table1" displayName="Table1" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15" xr:uid="{03FBFC27-16C8-DD42-928B-ABA1D393C713}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{72FE4043-6CB5-2048-BE5C-411DA9E676BA}" name="Table1" displayName="Table1" ref="A1:F17" totalsRowShown="0">
+  <autoFilter ref="A1:F17" xr:uid="{03FBFC27-16C8-DD42-928B-ABA1D393C713}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{05FCB8A4-A8BA-4B41-9F2B-B0506496E623}" name="할일" dataDxfId="23"/>
     <tableColumn id="2" xr3:uid="{60A0A5BA-661B-834B-8197-1C7A6D8DDDCD}" name="내용" dataDxfId="22"/>
@@ -899,10 +943,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C14FFC-A98E-D14C-9FD6-16CE2D228C25}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -989,7 +1033,7 @@
         <v>43615</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>28</v>
@@ -1037,10 +1081,10 @@
     </row>
     <row r="7" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="C7" s="2">
         <v>43629</v>
@@ -1049,9 +1093,11 @@
         <v>43630</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -1096,7 +1142,7 @@
         <v>48</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="2">
         <v>43618</v>
@@ -1108,27 +1154,35 @@
         <v>50</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="C11" s="2">
         <v>43618</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="D11" s="2">
+        <v>43634</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="69" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" s="2">
         <v>43618</v>
@@ -1137,10 +1191,10 @@
         <v>43628</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
@@ -1148,7 +1202,7 @@
         <v>49</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" s="2">
         <v>43618</v>
@@ -1157,10 +1211,10 @@
         <v>43628</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
@@ -1177,16 +1231,16 @@
         <v>43627</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="C15" s="2">
         <v>43630</v>
@@ -1195,9 +1249,47 @@
         <v>43630</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="2">
+        <v>43631</v>
+      </c>
+      <c r="D16" s="2">
+        <v>43631</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="2">
+        <v>43630</v>
+      </c>
+      <c r="D17" s="2">
+        <v>43630</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1241,10 +1333,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="C2" s="6">
         <v>43594</v>
@@ -1253,18 +1345,18 @@
         <v>43597</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="C3" s="5">
         <v>43600</v>
@@ -1273,16 +1365,16 @@
         <v>43601</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="C4" s="5">
         <v>43605</v>
@@ -1291,16 +1383,16 @@
         <v>43616</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" ht="86.25" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="C5" s="5">
         <v>43616</v>
@@ -1309,18 +1401,18 @@
         <v>43617</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="C6" s="5">
         <v>43617</v>
@@ -1329,18 +1421,18 @@
         <v>43618</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="69" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="C7" s="5">
         <v>43618</v>
@@ -1349,10 +1441,10 @@
         <v>43622</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">

--- a/6team-IndividualWorkSheet.xlsx
+++ b/6team-IndividualWorkSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nanul\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nanul\Downloads\6team-master (1)\6team-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC39DB6-645C-4193-B7AA-57669EE1D66F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882B11F4-0F74-4990-8AC8-4CBACA6CE212}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FCAA3FF0-AA75-C645-967F-E4C4CFF74051}"/>
+    <workbookView xWindow="5805" yWindow="2280" windowWidth="21600" windowHeight="11385" xr2:uid="{FCAA3FF0-AA75-C645-967F-E4C4CFF74051}"/>
   </bookViews>
   <sheets>
     <sheet name="윤다은" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="106">
   <si>
     <t>할일</t>
   </si>
@@ -400,6 +400,26 @@
   </si>
   <si>
     <t>받는 코드에서 인코딩 바꿔서 해결!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에러탐지 및 줄이기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new posting 할 때, 침대수와 인원수, 가격은 숫자만 들어올 수 있도록 처리//</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약 업로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜 분석해서 겹치지 않게 디비에 업로드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -587,8 +607,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{72FE4043-6CB5-2048-BE5C-411DA9E676BA}" name="Table1" displayName="Table1" ref="A1:F17" totalsRowShown="0">
-  <autoFilter ref="A1:F17" xr:uid="{03FBFC27-16C8-DD42-928B-ABA1D393C713}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{72FE4043-6CB5-2048-BE5C-411DA9E676BA}" name="Table1" displayName="Table1" ref="A1:F19" totalsRowShown="0">
+  <autoFilter ref="A1:F19" xr:uid="{03FBFC27-16C8-DD42-928B-ABA1D393C713}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{05FCB8A4-A8BA-4B41-9F2B-B0506496E623}" name="할일" dataDxfId="23"/>
     <tableColumn id="2" xr3:uid="{60A0A5BA-661B-834B-8197-1C7A6D8DDDCD}" name="내용" dataDxfId="22"/>
@@ -943,10 +963,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C14FFC-A98E-D14C-9FD6-16CE2D228C25}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1290,6 +1310,36 @@
       <c r="F17" s="1" t="s">
         <v>97</v>
       </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="2">
+        <v>43635</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="2">
+        <v>43634</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/6team-IndividualWorkSheet.xlsx
+++ b/6team-IndividualWorkSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nanul\Downloads\6team-master (1)\6team-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nanul\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882B11F4-0F74-4990-8AC8-4CBACA6CE212}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F4E787-A036-44BB-B8BE-16D193678AA3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5805" yWindow="2280" windowWidth="21600" windowHeight="11385" xr2:uid="{FCAA3FF0-AA75-C645-967F-E4C4CFF74051}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FCAA3FF0-AA75-C645-967F-E4C4CFF74051}"/>
   </bookViews>
   <sheets>
     <sheet name="윤다은" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="107">
   <si>
     <t>할일</t>
   </si>
@@ -420,6 +420,10 @@
   </si>
   <si>
     <t>날짜 분석해서 겹치지 않게 디비에 업로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약등록으로 넘어가기전에 예약일이 겹치는지 확인이 되지않음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -965,8 +969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C14FFC-A98E-D14C-9FD6-16CE2D228C25}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1311,7 +1315,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>104</v>
       </c>
@@ -1321,9 +1325,13 @@
       <c r="C18" s="2">
         <v>43635</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>43635</v>
+      </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
